--- a/paradigms/paradigms_excel/paradigms_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_stemmed.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="1532">
   <si>
     <t>երգել</t>
   </si>
@@ -4629,6 +4629,9 @@
   </si>
   <si>
     <t>-ուլ</t>
+  </si>
+  <si>
+    <t>-ուիլ</t>
   </si>
 </sst>
 </file>
@@ -4959,7 +4962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5685,10 +5690,10 @@
         <v>251</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>251</v>
+        <v>1531</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>251</v>
+        <v>1531</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>252</v>

--- a/paradigms/paradigms_excel/paradigms_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_stemmed.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="1532">
   <si>
     <t>երգել</t>
   </si>
@@ -4960,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN87"/>
+  <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4979,32 +4978,32 @@
     <col min="69" max="69" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
       <c r="J1" t="s">
@@ -5013,16 +5012,16 @@
       <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
       <c r="P1" t="s">
@@ -5043,10 +5042,10 @@
       <c r="U1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>109</v>
       </c>
       <c r="X1" t="s">
@@ -5061,10 +5060,10 @@
       <c r="AA1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>121</v>
       </c>
       <c r="AD1" t="s">
@@ -5175,505 +5174,502 @@
       <c r="BM1" t="s">
         <v>194</v>
       </c>
-      <c r="BN1" s="1"/>
     </row>
-    <row r="2" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" t="s">
         <v>199</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" t="s">
         <v>199</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" t="s">
         <v>199</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" t="s">
         <v>200</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" t="s">
         <v>195</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" t="s">
         <v>195</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T3" t="s">
         <v>197</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U3" t="s">
         <v>197</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V3" t="s">
         <v>199</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W3" t="s">
         <v>199</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X3" t="s">
         <v>200</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y3" t="s">
         <v>200</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z3" t="s">
         <v>195</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA3" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB3" t="s">
         <v>195</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC3" t="s">
         <v>195</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD3" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE3" t="s">
         <v>198</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF3" t="s">
         <v>195</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG3" t="s">
         <v>197</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH3" t="s">
         <v>197</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI3" t="s">
         <v>197</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ3" t="s">
         <v>197</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK3" t="s">
         <v>197</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL3" t="s">
         <v>197</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM3" t="s">
         <v>197</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN3" t="s">
         <v>198</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO3" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP3" t="s">
         <v>195</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ3" t="s">
         <v>198</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR3" t="s">
         <v>195</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS3" t="s">
         <v>195</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT3" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AU3" t="s">
         <v>198</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV3" t="s">
         <v>195</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW3" t="s">
         <v>198</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX3" t="s">
         <v>198</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY3" t="s">
         <v>195</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>198</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BA3" t="s">
         <v>198</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BB3" t="s">
         <v>195</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC3" t="s">
         <v>195</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD3" t="s">
         <v>198</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE3" t="s">
         <v>195</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BF3" t="s">
         <v>198</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG3" t="s">
         <v>198</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH3" t="s">
         <v>195</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BI3" t="s">
         <v>195</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ3" t="s">
         <v>195</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK3" t="s">
         <v>195</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BL3" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BM3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1526</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" t="s">
         <v>1530</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" t="s">
         <v>1531</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" t="s">
         <v>1530</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" t="s">
         <v>1531</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" t="s">
         <v>1530</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" t="s">
         <v>1531</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" t="s">
         <v>1530</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" t="s">
         <v>1531</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" t="s">
         <v>1530</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" t="s">
         <v>1531</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" t="s">
         <v>1530</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" t="s">
         <v>1531</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" t="s">
         <v>1530</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" t="s">
         <v>1531</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" t="s">
         <v>1530</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" t="s">
         <v>1531</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" t="s">
         <v>1530</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S4" t="s">
         <v>1531</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T4" t="s">
         <v>1530</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U4" t="s">
         <v>1531</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V4" t="s">
         <v>1530</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W4" t="s">
         <v>1531</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X4" t="s">
         <v>1530</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y4" t="s">
         <v>1531</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z4" t="s">
         <v>1530</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA4" t="s">
         <v>1530</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB4" t="s">
         <v>1531</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC4" t="s">
         <v>1531</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD4" t="s">
         <v>1530</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE4" t="s">
         <v>1530</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF4" t="s">
         <v>1531</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG4" t="s">
         <v>1531</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH4" t="s">
         <v>1531</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI4" t="s">
         <v>1530</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ4" t="s">
         <v>1530</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK4" t="s">
         <v>1531</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL4" t="s">
         <v>1531</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM4" t="s">
         <v>1530</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN4" t="s">
         <v>1530</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO4" t="s">
         <v>1531</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP4" t="s">
         <v>1531</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ4" t="s">
         <v>1531</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR4" t="s">
         <v>1530</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS4" t="s">
         <v>1531</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT4" t="s">
         <v>1530</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU4" t="s">
         <v>1531</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV4" t="s">
         <v>1530</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW4" t="s">
         <v>1531</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX4" t="s">
         <v>1531</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY4" t="s">
         <v>1531</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ4" t="s">
         <v>1530</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA4" t="s">
         <v>1531</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB4" t="s">
         <v>1531</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC4" t="s">
         <v>1530</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD4" t="s">
         <v>1530</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE4" t="s">
         <v>1530</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF4" t="s">
         <v>1531</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BG4" t="s">
         <v>1530</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH4" t="s">
         <v>1531</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BI4" t="s">
         <v>1531</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ4" t="s">
         <v>1531</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK4" t="s">
         <v>1531</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BL4" t="s">
         <v>1530</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BM4" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" t="s">
         <v>232</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>246</v>
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O5" t="s">
+        <v>237</v>
+      </c>
+      <c r="V5" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-    </row>
-    <row r="6" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1527</v>
       </c>
@@ -5870,7 +5866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -6264,7 +6260,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6437,7 +6433,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -6619,7 +6615,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -6977,7 +6973,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -7156,7 +7152,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -20421,449 +20417,6 @@
       </c>
       <c r="W87" t="s">
         <v>801</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:F85"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/paradigms/paradigms_excel/paradigms_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_stemmed.xlsx
@@ -4962,7 +4962,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5669,595 +5669,595 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM6" s="3" t="s">
-        <v>248</v>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O6" t="s">
+        <v>242</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>460</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>1020</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>1021</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>1022</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>1023</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>1024</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>1025</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>1035</v>
       </c>
       <c r="O7" t="s">
-        <v>242</v>
+        <v>1034</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>1033</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>1032</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>1031</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>1030</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>1029</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>1028</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>1027</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>1026</v>
       </c>
       <c r="X7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s">
-        <v>115</v>
+        <v>1131</v>
       </c>
       <c r="AA7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>119</v>
+        <v>1131</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1130</v>
       </c>
       <c r="AD7" t="s">
-        <v>123</v>
+        <v>1237</v>
       </c>
       <c r="AE7" t="s">
-        <v>122</v>
+        <v>1237</v>
       </c>
       <c r="AF7" t="s">
-        <v>125</v>
+        <v>1288</v>
       </c>
       <c r="AG7" t="s">
-        <v>129</v>
+        <v>1289</v>
       </c>
       <c r="AH7" t="s">
-        <v>127</v>
+        <v>1290</v>
       </c>
       <c r="AI7" t="s">
-        <v>130</v>
+        <v>1291</v>
       </c>
       <c r="AJ7" t="s">
-        <v>132</v>
+        <v>1292</v>
       </c>
       <c r="AK7" t="s">
-        <v>140</v>
+        <v>1293</v>
       </c>
       <c r="AL7" t="s">
-        <v>142</v>
+        <v>1294</v>
       </c>
       <c r="AM7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>1296</v>
       </c>
       <c r="AP7" t="s">
-        <v>150</v>
+        <v>1312</v>
       </c>
       <c r="AQ7" t="s">
-        <v>152</v>
+        <v>1324</v>
       </c>
       <c r="AR7" t="s">
-        <v>154</v>
+        <v>1352</v>
       </c>
       <c r="AS7" t="s">
-        <v>155</v>
+        <v>1353</v>
       </c>
       <c r="AT7" t="s">
-        <v>158</v>
+        <v>1354</v>
       </c>
       <c r="AU7" t="s">
-        <v>206</v>
+        <v>1355</v>
       </c>
       <c r="AV7" t="s">
-        <v>161</v>
+        <v>1356</v>
       </c>
       <c r="AW7" t="s">
-        <v>163</v>
+        <v>1357</v>
       </c>
       <c r="AX7" t="s">
-        <v>165</v>
+        <v>1358</v>
       </c>
       <c r="AY7" t="s">
-        <v>126</v>
+        <v>1288</v>
       </c>
       <c r="AZ7" t="s">
-        <v>167</v>
+        <v>1452</v>
       </c>
       <c r="BA7" t="s">
-        <v>170</v>
+        <v>1453</v>
       </c>
       <c r="BB7" t="s">
-        <v>172</v>
+        <v>1454</v>
       </c>
       <c r="BC7" t="s">
-        <v>174</v>
+        <v>1455</v>
       </c>
       <c r="BD7" t="s">
-        <v>176</v>
+        <v>1456</v>
       </c>
       <c r="BE7" t="s">
-        <v>178</v>
+        <v>1457</v>
       </c>
       <c r="BF7" t="s">
-        <v>180</v>
+        <v>1458</v>
       </c>
       <c r="BG7" t="s">
-        <v>182</v>
+        <v>1518</v>
       </c>
       <c r="BH7" t="s">
-        <v>185</v>
+        <v>1519</v>
       </c>
       <c r="BI7" t="s">
-        <v>79</v>
+        <v>1520</v>
       </c>
       <c r="BJ7" t="s">
-        <v>187</v>
+        <v>1521</v>
       </c>
       <c r="BK7" t="s">
-        <v>189</v>
+        <v>1522</v>
       </c>
       <c r="BL7" t="s">
-        <v>191</v>
+        <v>1523</v>
       </c>
       <c r="BM7" t="s">
-        <v>193</v>
+        <v>1524</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="X8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>1358</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>1454</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>1456</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>1457</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>1458</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>1519</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>1520</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>1523</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>1524</v>
+    <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_stemmed.xlsx
@@ -4958,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,7 +5362,7 @@
         <v>194</v>
       </c>
       <c r="AT3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AU3" t="s">
         <v>197</v>

--- a/paradigms/paradigms_excel/paradigms_stemmed.xlsx
+++ b/paradigms/paradigms_excel/paradigms_stemmed.xlsx
@@ -4958,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AX42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BH72" sqref="BH72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17592,7 +17592,7 @@
         <v>1193</v>
       </c>
       <c r="BH70" t="s">
-        <v>312</v>
+        <v>1117</v>
       </c>
       <c r="BI70" t="s">
         <v>508</v>
@@ -17753,7 +17753,7 @@
         <v>1191</v>
       </c>
       <c r="BH71" t="s">
-        <v>265</v>
+        <v>893</v>
       </c>
       <c r="BI71" t="s">
         <v>506</v>
